--- a/Java_022_StudentDB/학사관리-테이블명세-양식.xlsx
+++ b/Java_022_StudentDB/학사관리-테이블명세-양식.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KMS505233\Documents\workspace\java\Java_022_StudentDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEF4FD9E-7C21-471F-9EAB-E34498D7A385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD8EFF2C-998C-4D5D-A03D-CE82B42E7830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="테이블명세" sheetId="2" r:id="rId1"/>
@@ -1105,7 +1105,7 @@
   <dimension ref="B1:L35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:F10"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
